--- a/Example/Certification Renewals - ContosoLtd.xlsx
+++ b/Example/Certification Renewals - ContosoLtd.xlsx
@@ -879,10 +879,10 @@
         <v>43459.96344907407</v>
       </c>
       <c r="H2" s="3">
-        <v>44190</v>
+        <v>44372</v>
       </c>
       <c r="I2" s="3">
-        <v>44372</v>
+        <v>44555</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1298,10 +1298,10 @@
         <v>43450.78962962963</v>
       </c>
       <c r="H18" s="3">
-        <v>44181</v>
+        <v>44363</v>
       </c>
       <c r="I18" s="3">
-        <v>44363</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2510,10 +2510,10 @@
         <v>43436.60770833334</v>
       </c>
       <c r="H66" s="3">
-        <v>44167</v>
+        <v>44349</v>
       </c>
       <c r="I66" s="3">
-        <v>44349</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2917,10 +2917,10 @@
         <v>43442.19274305556</v>
       </c>
       <c r="H82" s="3">
-        <v>44173</v>
+        <v>44355</v>
       </c>
       <c r="I82" s="3">
-        <v>44355</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3342,10 +3342,10 @@
         <v>43461.03385416666</v>
       </c>
       <c r="H98" s="3">
-        <v>44192</v>
+        <v>44374</v>
       </c>
       <c r="I98" s="3">
-        <v>44374</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3731,10 +3731,10 @@
         <v>43436.13335648148</v>
       </c>
       <c r="H114" s="3">
-        <v>44167</v>
+        <v>44349</v>
       </c>
       <c r="I114" s="3">
-        <v>44349</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4159,10 +4159,10 @@
         <v>43461.56291666667</v>
       </c>
       <c r="H130" s="3">
-        <v>44192</v>
+        <v>44374</v>
       </c>
       <c r="I130" s="3">
-        <v>44374</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4572,10 +4572,10 @@
         <v>43439.00209490741</v>
       </c>
       <c r="H146" s="3">
-        <v>44170</v>
+        <v>44352</v>
       </c>
       <c r="I146" s="3">
-        <v>44352</v>
+        <v>44535</v>
       </c>
     </row>
     <row r="147" spans="1:9">
